--- a/20220421_algo_v2_9/algo_results/perf_result/generalized_cf.xlsx
+++ b/20220421_algo_v2_9/algo_results/perf_result/generalized_cf.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,16 +456,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007310027707363084</v>
+        <v>0.006641094635598557</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008308780200353565</v>
+        <v>0.007491279236003888</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007809403953858325</v>
+        <v>0.007066186935801223</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0004993762464952406</v>
+        <v>0.0004250923002026654</v>
       </c>
     </row>
     <row r="3">
@@ -473,16 +473,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2098138747884941</v>
+        <v>0.1911037891268534</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.216887417218543</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2202915527788624</v>
+        <v>0.2039956031726982</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01047767799036835</v>
+        <v>0.01289181404584483</v>
       </c>
     </row>
     <row r="4">
@@ -490,16 +490,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01412783411188333</v>
+        <v>0.01283611818081222</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0160400432284853</v>
+        <v>0.01448233928472721</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01508393867018431</v>
+        <v>0.01365922873276972</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0009561045583009829</v>
+        <v>0.0008231105519574981</v>
       </c>
     </row>
   </sheetData>
